--- a/hardware/BOM.xlsx
+++ b/hardware/BOM.xlsx
@@ -1,17 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fb704d003e5b38c/UnB/Princípios de Controle/tclab/hardware/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_B588DD2344F78A752DBEE5C8F30E4A626D00246D" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3AAE60D5-A019-E747-8229-6A5266476ACD}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="V3-BOM" sheetId="1" r:id="rId3"/>
+    <sheet name="V3-BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Nº</t>
   </si>
@@ -139,39 +159,56 @@
     <t>R6, R10</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Referência</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$R$]#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
-      <color rgb="FF1155CC"/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -179,7 +216,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -189,426 +226,800 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.57"/>
-    <col customWidth="1" min="2" max="2" width="22.14"/>
-    <col customWidth="1" min="3" max="3" width="23.43"/>
-    <col customWidth="1" min="4" max="4" width="17.57"/>
-    <col customWidth="1" min="5" max="5" width="26.71"/>
-    <col customWidth="1" min="6" max="6" width="9.43"/>
-    <col customWidth="1" min="7" max="7" width="15.86"/>
-    <col customWidth="1" min="8" max="8" width="13.14"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="G2" s="4" t="str">
-        <f>HYPERLINK("https://www.huinfinito.com.br/resistores-de-fio/334-resistor-de-fio-10r-5w.html","0.74")</f>
+      <c r="F2" s="2">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="G2" s="8">
+        <f>0.74</f>
         <v>0.74</v>
       </c>
-      <c r="H2" s="5">
-        <f t="shared" ref="H2:H12" si="1">F2*G2</f>
+      <c r="H2" s="7" t="str">
+        <f>HYPERLINK("https://www.huinfinito.com.br/resistores-de-fio/334-resistor-de-fio-10r-5w.html","ref")</f>
+        <v>ref</v>
+      </c>
+      <c r="I2" s="10">
+        <f>F2*G2</f>
         <v>1.48</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f>HYPERLINK("https://www.huinfinito.com.br/resistores-de-filme-de-carbono/294-resistor-de-filme-de-carbono-220r-1-4w.html","0.04")</f>
+      <c r="F3" s="3">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="9">
+        <f>0.04</f>
         <v>0.04</v>
       </c>
-      <c r="H3" s="5">
-        <f t="shared" si="1"/>
+      <c r="H3" s="7" t="str">
+        <f>HYPERLINK("https://www.huinfinito.com.br/resistores-de-filme-de-carbono/294-resistor-de-filme-de-carbono-220r-1-4w.html","ref")</f>
+        <v>ref</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I12" si="0">F3*G3</f>
         <v>0.08</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f>HYPERLINK("https://www.huinfinito.com.br/resistores-de-filme-de-carbono/310-resistor-de-filme-de-carbono-5k6-1-4w.html","0.04")</f>
+      <c r="F4" s="3">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="9">
+        <f>0.04</f>
         <v>0.04</v>
       </c>
-      <c r="H4" s="5">
-        <f t="shared" si="1"/>
+      <c r="H4" s="7" t="str">
+        <f>HYPERLINK("https://www.huinfinito.com.br/resistores-de-filme-de-carbono/310-resistor-de-filme-de-carbono-5k6-1-4w.html","ref")</f>
+        <v>ref</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f>HYPERLINK("https://www.huinfinito.com.br/resistores-de-filme-de-carbono/313-resistor-de-filme-de-carbono-10k-1-4w.html","0.04")</f>
+      <c r="F5" s="3">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <f>0.04</f>
         <v>0.04</v>
       </c>
-      <c r="H5" s="5">
-        <f t="shared" si="1"/>
+      <c r="H5" s="7" t="str">
+        <f>HYPERLINK("https://www.huinfinito.com.br/resistores-de-filme-de-carbono/313-resistor-de-filme-de-carbono-10k-1-4w.html","ref")</f>
+        <v>ref</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f>HYPERLINK("https://www.huinfinito.com.br/capacitor-ceramico/40-capacitor-ceramico-100nf-50v.html","0.05")</f>
+      <c r="F6" s="3">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="9">
         <v>0.05</v>
       </c>
-      <c r="H6" s="5">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="H6" s="7" t="str">
+        <f>HYPERLINK("https://www.huinfinito.com.br/capacitor-ceramico/40-capacitor-ceramico-100nf-50v.html","ref")</f>
+        <v>ref</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f>HYPERLINK("https://www.huinfinito.com.br/capacitor-eletrolitico/63-capacitor-eletrolitico-47uf-50v.html","0.06")</f>
+      <c r="F7" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <f>0.06</f>
         <v>0.06</v>
       </c>
-      <c r="H7" s="5">
-        <f t="shared" si="1"/>
+      <c r="H7" s="7" t="str">
+        <f>HYPERLINK("https://www.huinfinito.com.br/capacitor-eletrolitico/63-capacitor-eletrolitico-47uf-50v.html","ref")</f>
+        <v>ref</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f>HYPERLINK("https://www.huinfinito.com.br/capacitor-eletrolitico/92-capacitor-eletrolitico-100uf-25v.html","0.13")</f>
+      <c r="F8" s="1">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
         <v>0.13</v>
       </c>
-      <c r="H8" s="5">
-        <f t="shared" si="1"/>
+      <c r="H8" s="7" t="str">
+        <f>HYPERLINK("https://www.huinfinito.com.br/capacitor-eletrolitico/92-capacitor-eletrolitico-100uf-25v.html","ref")</f>
+        <v>ref</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="4" t="str">
-        <f>HYPERLINK("https://www.huinfinito.com.br/leds/263-led-difuso-verde-5mm.html","0.12")</f>
+      <c r="F9" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <f>0.12</f>
         <v>0.12</v>
       </c>
-      <c r="H9" s="5">
-        <f t="shared" si="1"/>
+      <c r="H9" s="7" t="str">
+        <f>HYPERLINK("https://www.huinfinito.com.br/leds/263-led-difuso-verde-5mm.html","ref")</f>
+        <v>ref</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f>HYPERLINK("https://www.huinfinito.com.br/leds/665-led-difuso-azul-5mm.html","0.41")</f>
+      <c r="F10" s="3">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="G10" s="9">
+        <f>0.41</f>
         <v>0.41</v>
       </c>
-      <c r="H10" s="5">
-        <f t="shared" si="1"/>
+      <c r="H10" s="7" t="str">
+        <f>HYPERLINK("https://www.huinfinito.com.br/leds/665-led-difuso-azul-5mm.html","ref")</f>
+        <v>ref</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="0"/>
         <v>0.82</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G11" s="4" t="str">
-        <f>HYPERLINK("https://www.huinfinito.com.br/npn/749-transistor-2n2222-npn-plastico.html","0.17")</f>
+      <c r="F11" s="3">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="G11" s="9">
+        <f>0.17</f>
         <v>0.17</v>
       </c>
-      <c r="H11" s="5">
-        <f t="shared" si="1"/>
+      <c r="H11" s="7" t="str">
+        <f>HYPERLINK("https://www.huinfinito.com.br/npn/749-transistor-2n2222-npn-plastico.html","ref")</f>
+        <v>ref</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G12" s="4" t="str">
-        <f>HYPERLINK("https://www.huinfinito.com.br/home/1084-termistor-ntc-10k-5mm.html","0.31")</f>
+      <c r="F12" s="3">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="G12" s="9">
+        <f>0.31</f>
         <v>0.31</v>
       </c>
-      <c r="H12" s="5">
-        <f t="shared" si="1"/>
+      <c r="H12" s="7" t="str">
+        <f>HYPERLINK("https://www.huinfinito.com.br/home/1084-termistor-ntc-10k-5mm.html","ref")</f>
+        <v>ref</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="9">
-        <f>SUM(H2:H12)</f>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="6">
+        <f>SUM(I2:I12)</f>
         <v>3.96</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd"/>
 </worksheet>
 </file>